--- a/data/trans_dic/Q25_A_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,85; 100,0</t>
+          <t>54,73; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,78; 100,0</t>
+          <t>73,37; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,6; 100,0</t>
+          <t>55,64; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,95; 95,23</t>
+          <t>59,3; 95,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,91; 89,54</t>
+          <t>48,07; 89,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,05; 100,0</t>
+          <t>41,85; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,39; 96,1</t>
+          <t>66,7; 96,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,77; 94,93</t>
+          <t>72,72; 94,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,25; 93,28</t>
+          <t>62,94; 93,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,16; 100,0</t>
+          <t>52,28; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,4; 79,62</t>
+          <t>44,34; 78,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,19; 81,53</t>
+          <t>62,28; 81,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,61; 63,52</t>
+          <t>35,9; 65,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 73,21</t>
+          <t>17,53; 74,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,65; 69,38</t>
+          <t>44,06; 68,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,61; 72,09</t>
+          <t>48,83; 71,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,99; 72,22</t>
+          <t>47,06; 71,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 66,84</t>
+          <t>28,61; 65,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,03; 69,65</t>
+          <t>49,69; 68,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,57; 74,03</t>
+          <t>58,36; 73,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,01; 64,09</t>
+          <t>44,76; 64,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,19; 61,89</t>
+          <t>29,47; 63,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,07; 54,38</t>
+          <t>32,35; 53,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,66; 53,59</t>
+          <t>33,29; 53,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,73; 56,14</t>
+          <t>35,56; 56,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 48,23</t>
+          <t>16,03; 47,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 35,21</t>
+          <t>13,23; 34,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 36,32</t>
+          <t>19,8; 36,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,18; 38,65</t>
+          <t>21,74; 40,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 45,75</t>
+          <t>23,27; 44,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,74; 42,98</t>
+          <t>27,43; 43,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,5; 42,0</t>
+          <t>28,75; 41,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,33; 43,66</t>
+          <t>29,35; 43,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,01; 41,98</t>
+          <t>23,72; 41,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 40,16</t>
+          <t>22,83; 39,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,44; 37,43</t>
+          <t>22,4; 36,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 33,61</t>
+          <t>17,86; 32,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 93,7</t>
+          <t>14,24; 94,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 45,62</t>
+          <t>22,15; 44,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 35,98</t>
+          <t>16,23; 35,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,33; 32,22</t>
+          <t>13,97; 31,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,25; 31,33</t>
+          <t>16,83; 31,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,73; 38,14</t>
+          <t>25,88; 38,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,68; 33,68</t>
+          <t>21,89; 33,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 29,33</t>
+          <t>18,19; 29,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 89,35</t>
+          <t>17,96; 91,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 21,59</t>
+          <t>9,45; 22,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,63; 27,52</t>
+          <t>13,93; 26,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 25,45</t>
+          <t>12,68; 25,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 20,01</t>
+          <t>8,82; 19,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 52,19</t>
+          <t>6,2; 51,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,62; 35,87</t>
+          <t>12,32; 36,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 30,34</t>
+          <t>11,04; 31,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,3; 27,43</t>
+          <t>14,92; 27,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,76; 22,64</t>
+          <t>10,12; 22,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,55; 27,72</t>
+          <t>15,5; 27,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 24,93</t>
+          <t>13,46; 24,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 20,22</t>
+          <t>12,16; 20,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 20,63</t>
+          <t>7,86; 21,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,91</t>
+          <t>6,5; 16,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 21,38</t>
+          <t>9,11; 21,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 17,61</t>
+          <t>8,46; 17,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 57,11</t>
+          <t>6,35; 56,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 78,58</t>
+          <t>10,34; 76,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 36,85</t>
+          <t>9,46; 38,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,48; 21,37</t>
+          <t>6,25; 21,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,76; 20,86</t>
+          <t>8,52; 21,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 18,48</t>
+          <t>7,91; 17,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 21,94</t>
+          <t>10,5; 21,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,19; 16,52</t>
+          <t>9,15; 16,2</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,11</t>
+          <t>0,76; 7,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,8</t>
+          <t>2,18; 10,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 9,22</t>
+          <t>1,53; 8,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,18</t>
+          <t>1,25; 7,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,7 +1590,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,26</t>
+          <t>0,0; 66,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1604,22 +1605,22 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,54</t>
+          <t>0,0; 5,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,53</t>
+          <t>2,1; 10,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,8</t>
+          <t>1,41; 8,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,23</t>
+          <t>1,17; 6,52</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,69; 27,44</t>
+          <t>20,43; 27,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,13</t>
+          <t>23,74; 30,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,92</t>
+          <t>20,39; 26,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,17; 70,14</t>
+          <t>14,17; 70,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,96; 44,19</t>
+          <t>31,55; 43,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,47; 41,19</t>
+          <t>31,08; 41,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,9; 36,18</t>
+          <t>26,9; 36,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,48; 31,3</t>
+          <t>22,19; 30,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,98</t>
+          <t>24,84; 30,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,11</t>
+          <t>27,37; 32,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>23,52; 29,11</t>
+          <t>23,61; 29,11</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,37; 66,68</t>
+          <t>18,35; 66,72</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de fumar hace menos tiempo (3.374 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9440</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15800</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10402</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7663</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15511</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13549</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12700</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20452</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31312</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23951</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20362</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6178; 11288</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12314; 16785</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8626; 10402</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4260; 7663</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7186; 12915</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11403; 18275</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8892; 16545</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6984; 16689</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16144; 23261</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26190; 34170</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18191; 26950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12730; 24351</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22544</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53380</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26259</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8266</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40791</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>51804</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36279</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14373</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63335</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>105183</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62538</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22639</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15716; 27876</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45894; 60254</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18950; 34311</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3353; 14309</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31377; 48748</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41187; 60173</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28593; 43312</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8738; 20054</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53002; 73280</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92226; 116314</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50828; 72669</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14635; 31371</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36691</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47960</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39289</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13602</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15502</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>34833</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28701</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17373</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52193</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82794</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67990</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30974</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27249; 45225</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36416; 58089</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30542; 48870</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7056; 21008</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8790; 23041</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24968; 45637</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21373; 39818</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12147; 23244</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41326; 65963</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>67704; 97128</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>54058; 80963</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22821; 40371</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39370</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50489</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31705</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>262162</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19823</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22865</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>23202</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20201</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59193</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>73355</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54907</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>282364</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28666; 49767</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>38294; 62665</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23363; 42394</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>49580; 328495</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13742; 27768</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15038; 32535</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14189; 32355</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14548; 27265</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48543; 72956</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57710; 87877</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42265; 68380</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>78082; 395792</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18885</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29399</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29574</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21250</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11723</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12761</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17458</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23057</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>41122</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>42334</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38708</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12182; 28374</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20430; 39485</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20163; 40658</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13528; 30067</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1011; 8369</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6374; 18684</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7540; 21300</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12764; 23952</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14700; 32872</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>30755; 53826</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>30584; 55529</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>29048; 49868</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15872</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20633</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>19132</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2792</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6097</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5460</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18664</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22572</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>26730</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24592</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9416; 25480</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10969; 28093</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12714; 29834</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13037; 26997</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>730; 6550</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1099; 8162</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2916; 11746</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2741; 9248</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11198; 27991</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14187; 32249</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17903; 36224</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18105; 32063</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2798</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7283</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4931</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2798</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8269</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4931</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>814; 8514</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3081; 14573</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1795; 9784</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1442; 8437</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2128</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4246</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 962</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6935</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3112; 15043</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1712; 9859</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1551; 8620</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>145602</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>222203</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>162793</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>336115</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>94091</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>142404</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>120588</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>87565</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>239692</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>364607</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>283381</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>423679</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>125205; 167489</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>196522; 251189</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>141854; 187411</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>119283; 591810</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>78394; 108845</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>121547; 161016</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>102930; 139379</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>73655; 102448</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>213945; 265436</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>333682; 398064</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>254596; 313914</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>215406; 783181</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>